--- a/heartbeat base xlsx template_copy(2).xlsx
+++ b/heartbeat base xlsx template_copy(2).xlsx
@@ -1,37 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.philips.com/personal/ananyak_s_philips_com/Documents/Saved Pictures/VS Files/heartbeat generator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7CD729-55DC-40F1-84AD-D0F6B664A287}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hosts</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>ipv6</t>
+  </si>
+  <si>
+    <t>city name</t>
+  </si>
+  <si>
+    <t>country iso code</t>
+  </si>
+  <si>
+    <t>country name</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>geo.name</t>
+  </si>
+  <si>
+    <t>location id</t>
+  </si>
+  <si>
+    <t>site id</t>
+  </si>
+  <si>
+    <t>site name</t>
+  </si>
+  <si>
+    <t>site uid</t>
+  </si>
+  <si>
+    <t>site category</t>
+  </si>
+  <si>
+    <t>cmbd ci name</t>
+  </si>
+  <si>
+    <t>cmdb ci uid</t>
+  </si>
+  <si>
+    <t>cmdb ci parent name</t>
+  </si>
+  <si>
+    <t>cmdb ci parent uid</t>
+  </si>
+  <si>
+    <t>cmdb event category</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>icmp</t>
+  </si>
+  <si>
+    <t>icmp-ae005_fluke_ae005-r1</t>
+  </si>
+  <si>
+    <t>130.138.101.244</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Philips Dubai</t>
+  </si>
+  <si>
+    <t>ff61af320f5342000dcfc98b03050e63</t>
+  </si>
+  <si>
+    <t>AE-005</t>
+  </si>
+  <si>
+    <t>AE-005_Dubai</t>
+  </si>
+  <si>
+    <t>93cee5e1dbb6f3844bdbee71ca961978</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>ae005_fluke_ae005-r1</t>
+  </si>
+  <si>
+    <t>AE-005-SITE-UPLINK</t>
+  </si>
+  <si>
+    <t>Application.Bridge.Monitoring</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +192,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,149 +516,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>hosts</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ipv4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ipv6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>city name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>country iso code</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>country name</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>geo.name</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>location id</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>site id</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>site name</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>site uid</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>site category</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>cmbd ci name</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>cmdb ci uid</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>cmdb ci parent name</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>cmdb ci parent uid</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>cmdb event category</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>timeout</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>25.104072599999999</v>
+      </c>
+      <c r="K2">
+        <v>55.163108999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/heartbeat base xlsx template_copy(2).xlsx
+++ b/heartbeat base xlsx template_copy(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.philips.com/personal/ananyak_s_philips_com/Documents/Saved Pictures/VS Files/heartbeat generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7CD729-55DC-40F1-84AD-D0F6B664A287}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A981BE-0CD6-44AF-BFE5-8A754C5CB770}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>1s</t>
   </si>
   <si>
-    <t>site</t>
+    <t>sit</t>
   </si>
 </sst>
 </file>
@@ -230,6 +230,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/heartbeat base xlsx template_copy(2).xlsx
+++ b/heartbeat base xlsx template_copy(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.philips.com/personal/ananyak_s_philips_com/Documents/Saved Pictures/VS Files/heartbeat generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A981BE-0CD6-44AF-BFE5-8A754C5CB770}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C18250-3806-4AED-B9A1-6EC96EC7DE57}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>1s</t>
   </si>
   <si>
-    <t>sit</t>
+    <t>site</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/heartbeat base xlsx template_copy(2).xlsx
+++ b/heartbeat base xlsx template_copy(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.philips.com/personal/ananyak_s_philips_com/Documents/Saved Pictures/VS Files/heartbeat generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C18250-3806-4AED-B9A1-6EC96EC7DE57}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F939C56-A99C-4CB2-8598-E2A6CEF107D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>1s</t>
   </si>
   <si>
-    <t>site</t>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/heartbeat base xlsx template_copy(2).xlsx
+++ b/heartbeat base xlsx template_copy(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.philips.com/personal/ananyak_s_philips_com/Documents/Saved Pictures/VS Files/heartbeat generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F939C56-A99C-4CB2-8598-E2A6CEF107D5}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_496DC3F704648CFEE77960B543245E3FB48F8EF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291A996A-B01E-4DD2-80F2-7EC49852CF10}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>1s</t>
   </si>
   <si>
-    <t>hello</t>
+    <t>site</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
